--- a/OnBoard/data/fishID.xlsx
+++ b/OnBoard/data/fishID.xlsx
@@ -1,21 +1,113 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20391"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\e.armelloni\OneDrive\Lavoro\Solemon\github\SoleMon_project\OnBoard\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="22" documentId="11_CC78FDCE8F79A8D366075C52F315227181DF8DC2" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{CDA20420-46A6-41ED-8A43-EBB57091936E}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>fishID</t>
+  </si>
+  <si>
+    <t>haul</t>
+  </si>
+  <si>
+    <t>ELAS</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>solea</t>
+  </si>
+  <si>
+    <t>RHO</t>
+  </si>
+  <si>
+    <t>sepia_a</t>
+  </si>
+  <si>
+    <t>sepia_b</t>
+  </si>
+  <si>
+    <t>sepia_c</t>
+  </si>
+  <si>
+    <t>sepia_d</t>
+  </si>
+  <si>
+    <t>PSETTA</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>Elas</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>SR</t>
+  </si>
+  <si>
+    <t>PM</t>
+  </si>
+  <si>
+    <t>SeA</t>
+  </si>
+  <si>
+    <t>SeB</t>
+  </si>
+  <si>
+    <t>SeC</t>
+  </si>
+  <si>
+    <t>SeD</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>SOLEVUL:SOLEAEG</t>
+  </si>
+  <si>
+    <t>RAJAAST:RAJACLA:RAJAMIR:TORPMAR</t>
+  </si>
+  <si>
+    <t>SCOHRHO</t>
+  </si>
+  <si>
+    <t>PSETMAX</t>
+  </si>
+  <si>
+    <t>SEPIOFF</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,6 +155,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -109,7 +209,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -141,9 +241,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -175,6 +293,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -350,148 +486,166 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>type</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>fishID</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>haul</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>ELAS</t>
-        </is>
-      </c>
-      <c r="B2">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2">
         <v>202</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>solea</t>
-        </is>
-      </c>
-      <c r="B3">
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3">
         <v>6806</v>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>RHO</t>
-        </is>
-      </c>
-      <c r="B4">
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4">
         <v>440</v>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>sepia_a</t>
-        </is>
-      </c>
-      <c r="B5">
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5">
         <v>0</v>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>sepia_b</t>
-        </is>
-      </c>
-      <c r="B6">
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6">
         <v>0</v>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>sepia_c</t>
-        </is>
-      </c>
-      <c r="B7">
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7">
         <v>0</v>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>sepia_d</t>
-        </is>
-      </c>
-      <c r="B8">
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8">
         <v>88</v>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>PSETTA</t>
-        </is>
-      </c>
-      <c r="B9">
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9">
         <v>71</v>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+      <c r="D9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/OnBoard/data/fishID.xlsx
+++ b/OnBoard/data/fishID.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20391"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\e.armelloni\OneDrive\Lavoro\Solemon\github\SoleMon_project\OnBoard\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\solemon_pc\Desktop\solemon\2022\raccolta_dati\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="11_CC78FDCE8F79A8D366075C52F315227181DF8DC2" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{CDA20420-46A6-41ED-8A43-EBB57091936E}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
   <si>
     <t>type</t>
   </si>
@@ -101,12 +100,21 @@
   </si>
   <si>
     <t>SEPIOFF</t>
+  </si>
+  <si>
+    <t>MELIK</t>
+  </si>
+  <si>
+    <t>MK</t>
+  </si>
+  <si>
+    <t>MELIKER</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -151,7 +159,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -167,7 +175,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -242,23 +250,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -294,23 +285,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -486,11 +460,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -648,6 +622,23 @@
         <v>25</v>
       </c>
     </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/OnBoard/data/fishID.xlsx
+++ b/OnBoard/data/fishID.xlsx
@@ -1,121 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\solemon_pc\Desktop\solemon\2022\raccolta_dati\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>fishID</t>
-  </si>
-  <si>
-    <t>haul</t>
-  </si>
-  <si>
-    <t>ELAS</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>solea</t>
-  </si>
-  <si>
-    <t>RHO</t>
-  </si>
-  <si>
-    <t>sepia_a</t>
-  </si>
-  <si>
-    <t>sepia_b</t>
-  </si>
-  <si>
-    <t>sepia_c</t>
-  </si>
-  <si>
-    <t>sepia_d</t>
-  </si>
-  <si>
-    <t>PSETTA</t>
-  </si>
-  <si>
-    <t>code</t>
-  </si>
-  <si>
-    <t>Elas</t>
-  </si>
-  <si>
-    <t>SS</t>
-  </si>
-  <si>
-    <t>SR</t>
-  </si>
-  <si>
-    <t>PM</t>
-  </si>
-  <si>
-    <t>SeA</t>
-  </si>
-  <si>
-    <t>SeB</t>
-  </si>
-  <si>
-    <t>SeC</t>
-  </si>
-  <si>
-    <t>SeD</t>
-  </si>
-  <si>
-    <t>species</t>
-  </si>
-  <si>
-    <t>SOLEVUL:SOLEAEG</t>
-  </si>
-  <si>
-    <t>RAJAAST:RAJACLA:RAJAMIR:TORPMAR</t>
-  </si>
-  <si>
-    <t>SCOHRHO</t>
-  </si>
-  <si>
-    <t>PSETMAX</t>
-  </si>
-  <si>
-    <t>SEPIOFF</t>
-  </si>
-  <si>
-    <t>MELIK</t>
-  </si>
-  <si>
-    <t>MK</t>
-  </si>
-  <si>
-    <t>MELIKER</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,23 +59,15 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -217,7 +109,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -249,10 +141,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -284,7 +175,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -460,183 +350,263 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>code</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>fishID</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>haul</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>species</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ELAS</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Elas</t>
+        </is>
       </c>
       <c r="C2">
         <v>202</v>
       </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>RAJAAST:RAJACLA:RAJAMIR:TORPMAR</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>solea</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>SS</t>
+        </is>
       </c>
       <c r="C3">
-        <v>6806</v>
-      </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" t="s">
+        <v>7061</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>SOLEVUL:SOLEAEG</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>RHO</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>SR</t>
+        </is>
+      </c>
+      <c r="C4">
+        <v>447</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>SCOHRHO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sepia_a</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>SeA</t>
+        </is>
+      </c>
+      <c r="C5">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4">
-        <v>440</v>
-      </c>
-      <c r="D4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>SEPIOFF</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sepia_b</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>SeB</t>
+        </is>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
-      <c r="D6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>SEPIOFF</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sepia_c</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>SeC</t>
+        </is>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
-      <c r="D7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>20</v>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>SEPIOFF</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sepia_d</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>SeD</t>
+        </is>
       </c>
       <c r="C8">
         <v>88</v>
       </c>
-      <c r="D8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>16</v>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>SEPIOFF</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>PSETTA</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>PM</t>
+        </is>
       </c>
       <c r="C9">
-        <v>71</v>
-      </c>
-      <c r="D9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" t="s">
-        <v>28</v>
+        <v>74</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>PSETMAX</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>MELIK</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>MK</t>
+        </is>
       </c>
       <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" t="s">
-        <v>29</v>
+        <v>98</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>MELIKER</t>
+        </is>
       </c>
     </row>
   </sheetData>
